--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_21-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_21-18.xlsx
@@ -104,6 +104,9 @@
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
+    <t>CERELAC قمح بدون لبن</t>
+  </si>
+  <si>
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -399,6 +402,12 @@
   </si>
   <si>
     <t>19:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاميليا مناديل </t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t xml:space="preserve">قطن 250 جم </t>
@@ -1402,13 +1411,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1428,13 +1437,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1454,17 +1463,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1472,7 +1481,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1480,17 +1489,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1498,7 +1507,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1506,17 +1515,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1524,7 +1533,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1532,17 +1541,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1550,7 +1559,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1558,17 +1567,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>99</v>
+        <v>25.5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1576,7 +1585,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1584,17 +1593,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1610,17 +1619,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1628,7 +1637,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1636,17 +1645,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1654,7 +1663,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1662,17 +1671,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1688,13 +1697,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1714,13 +1723,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1740,17 +1749,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1766,13 +1775,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1784,7 +1793,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1792,17 +1801,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1818,13 +1827,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1844,17 +1853,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>128.66999999999999</v>
+        <v>43</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1870,13 +1879,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>13.5</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1896,17 +1905,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1922,17 +1931,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1940,7 +1949,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1948,13 +1957,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1974,13 +1983,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2000,13 +2009,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2026,17 +2035,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2052,17 +2061,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2078,17 +2087,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2104,17 +2113,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2130,17 +2139,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2156,17 +2165,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>55.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2182,17 +2191,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>24</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2208,13 +2217,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2234,13 +2243,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2260,13 +2269,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>79.200000000000003</v>
+        <v>92</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2286,17 +2295,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>20</v>
+        <v>79.200000000000003</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2304,7 +2313,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2312,17 +2321,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2338,17 +2347,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2364,17 +2373,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2390,13 +2399,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2422,7 +2431,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2448,7 +2457,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2468,17 +2477,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2486,7 +2495,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2494,17 +2503,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2512,7 +2521,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2520,17 +2529,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2546,17 +2555,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2572,17 +2581,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2590,7 +2599,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2598,17 +2607,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2616,7 +2625,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2624,17 +2633,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2650,17 +2659,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2668,7 +2677,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2676,13 +2685,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2702,13 +2711,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2728,13 +2737,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2754,13 +2763,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2780,13 +2789,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2812,11 +2821,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2832,17 +2841,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2858,17 +2867,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2884,17 +2893,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2910,17 +2919,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2936,17 +2945,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2962,17 +2971,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2988,17 +2997,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3014,13 +3023,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>30.09</v>
+        <v>50</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3046,7 +3055,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>92</v>
+        <v>30.09</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3072,7 +3081,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3098,11 +3107,11 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>48.719999999999999</v>
+        <v>23</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3118,17 +3127,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>66</v>
+        <v>48.719999999999999</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3144,13 +3153,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3170,17 +3179,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3196,17 +3205,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3222,17 +3231,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3240,7 +3249,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3248,17 +3257,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3266,7 +3275,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3274,17 +3283,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>63</v>
+        <v>22.5</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3300,13 +3309,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3326,17 +3335,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3352,17 +3361,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3370,7 +3379,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3378,13 +3387,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3404,17 +3413,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3422,7 +3431,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3430,17 +3439,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3456,17 +3465,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3474,7 +3483,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3488,7 +3497,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3500,7 +3509,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3508,13 +3517,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3526,7 +3535,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3534,13 +3543,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3560,13 +3569,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3574,37 +3583,89 @@
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
-      <c r="K103" s="10">
-        <v>5773.71</v>
-      </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-    </row>
-    <row r="104" ht="17.25" customHeight="1">
-      <c t="s" r="A104" s="11">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
         <v>137</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c t="s" r="F104" s="12">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
         <v>138</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="13"/>
-      <c t="s" r="I104" s="14">
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>24</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c t="s" r="N103" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
         <v>139</v>
       </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
+        <v>9</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>20</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c t="s" r="N104" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="26.25" customHeight="1">
+      <c r="K105" s="10">
+        <v>5870.71</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="11">
+        <v>140</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c t="s" r="F106" s="12">
+        <v>141</v>
+      </c>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13"/>
+      <c t="s" r="I106" s="14">
+        <v>142</v>
+      </c>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="308">
+  <mergeCells count="314">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3909,10 +3970,16 @@
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="I104:N104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I106:N106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
